--- a/xlsx_files/Race48.xlsx
+++ b/xlsx_files/Race48.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_project\xlsx_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B21950D9-0E71-4276-BA5D-C15F31C67794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3FEA0D-5E17-4B3F-B46E-BCEB0D6CE72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1032" yWindow="4872" windowWidth="18516" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3612" yWindow="348" windowWidth="26904" windowHeight="15732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Track Name</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>01:44.6920</t>
+  </si>
+  <si>
+    <t>0.75</t>
   </si>
 </sst>
 </file>
@@ -682,7 +685,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -693,7 +696,7 @@
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.21875" customWidth="1"/>
     <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
@@ -754,8 +757,8 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2">
-        <v>2</v>
+      <c r="G2" t="s">
+        <v>42</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>

--- a/xlsx_files/Race48.xlsx
+++ b/xlsx_files/Race48.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3FEA0D-5E17-4B3F-B46E-BCEB0D6CE72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C8C1EF-0FFA-41E8-8777-6BEB126961D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3612" yWindow="348" windowWidth="26904" windowHeight="15732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Track Name</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>0.75</t>
+  </si>
+  <si>
+    <t>01:44.1450</t>
   </si>
 </sst>
 </file>
@@ -685,7 +688,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -752,13 +755,19 @@
         <v>40</v>
       </c>
       <c r="E2" s="1">
-        <v>45464</v>
+        <v>45461</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
         <v>42</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
